--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/T-SNE/m1_results_T-SNE.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/T-SNE/m1_results_T-SNE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,144 @@
         <v>8761.410913360258</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:34</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>setting1</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3844.990900800918</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:35</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2893.15572850852</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:35</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>setting2</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2354.425326036787</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:35</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>setting3</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3783.355944707603</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:35</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>setting5</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2298.094793551396</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:35</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>setting4</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2868.605898795541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
